--- a/PC2/Diff/DIFF/ZnSO4/Differenz_Spline_Linear.xlsx
+++ b/PC2/Diff/DIFF/ZnSO4/Differenz_Spline_Linear.xlsx
@@ -5,22 +5,35 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\49157\OneDrive\Dokumente\1. Uni Stuttgart\1.4. PC\1.4.6. PC II Lab\Protokolle\PC2\Diff\DIFF\ZnSO4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\49157\OneDrive\Desktop\Protokolle\PC2\Diff\DIFF\ZnSO4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{D9BC5CC1-0BFC-4473-9341-53EA1A1EE7EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{294D8047-0496-4598-A69B-327FF2787946}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{AB37D8BF-2196-43B1-961C-DF9440D73305}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AB37D8BF-2196-43B1-961C-DF9440D73305}"/>
   </bookViews>
   <sheets>
     <sheet name="Differenz_Spline_Linear" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>Datei</t>
   </si>
@@ -140,6 +153,15 @@
   </si>
   <si>
     <t>znso4_ (9).dat</t>
+  </si>
+  <si>
+    <t>z / mm</t>
+  </si>
+  <si>
+    <t>z/ mm</t>
+  </si>
+  <si>
+    <t>z^-2</t>
   </si>
 </sst>
 </file>
@@ -697,45 +719,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.37868044619422569"/>
-          <c:y val="2.7777777777777776E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -766,12 +750,141 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.32826574803149605"/>
+                  <c:y val="4.2402826855123678E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                      <a:lnSpc>
+                        <a:spcPct val="100000"/>
+                      </a:lnSpc>
+                      <a:spcBef>
+                        <a:spcPts val="0"/>
+                      </a:spcBef>
+                      <a:spcAft>
+                        <a:spcPts val="0"/>
+                      </a:spcAft>
+                      <a:buClrTx/>
+                      <a:buSzTx/>
+                      <a:buFontTx/>
+                      <a:buNone/>
+                      <a:tabLst/>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:sysClr val="windowText" lastClr="000000">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:sysClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="de-DE" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                        <a:effectLst/>
+                      </a:rPr>
+                      <a:t>Z</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="de-DE" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="30000">
+                        <a:effectLst/>
+                      </a:rPr>
+                      <a:t>-2</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="de-DE" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                        <a:effectLst/>
+                      </a:rPr>
+                      <a:t> </a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t> = 0.4171 t + 16.2</a:t>
+                    </a:r>
+                    <a:br>
+                      <a:rPr lang="en-US" baseline="0"/>
+                    </a:br>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>R² = 0.9772</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                    <a:lnSpc>
+                      <a:spcPct val="100000"/>
+                    </a:lnSpc>
+                    <a:spcBef>
+                      <a:spcPts val="0"/>
+                    </a:spcBef>
+                    <a:spcAft>
+                      <a:spcPts val="0"/>
+                    </a:spcAft>
+                    <a:buClrTx/>
+                    <a:buSzTx/>
+                    <a:buFontTx/>
+                    <a:buNone/>
+                    <a:tabLst/>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:sysClr val="windowText" lastClr="000000">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:sysClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Differenz_Spline_Linear!$C$17:$C$39</c:f>
+              <c:f>Differenz_Spline_Linear!$C$17:$C$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>480</c:v>
                 </c:pt>
@@ -837,87 +950,81 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>1740</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1800</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Differenz_Spline_Linear!$F$17:$F$39</c:f>
+              <c:f>Differenz_Spline_Linear!$G$17:$G$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>2.3435602906193067E-4</c:v>
+                  <c:v>234.35602906193063</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.4081999991558051E-4</c:v>
+                  <c:v>240.81999991558055</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.5945141724307294E-4</c:v>
+                  <c:v>259.45141724307297</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.5982061833967993E-4</c:v>
+                  <c:v>259.82061833967992</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.9244627059640815E-4</c:v>
+                  <c:v>292.44627059640811</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.0322716519162794E-4</c:v>
+                  <c:v>303.22716519162793</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.1169300929985791E-4</c:v>
+                  <c:v>311.69300929985781</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.2513261526910249E-4</c:v>
+                  <c:v>325.13261526910247</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.5586747474255869E-4</c:v>
+                  <c:v>355.86747474255878</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.7791617032563983E-4</c:v>
+                  <c:v>377.91617032563988</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.9586186707425518E-4</c:v>
+                  <c:v>395.8618670742552</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.3333071109761964E-4</c:v>
+                  <c:v>433.33071109761966</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.6261183038380629E-4</c:v>
+                  <c:v>462.61183038380619</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.9552343632773891E-4</c:v>
+                  <c:v>495.52343632773881</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.29082910124438E-4</c:v>
+                  <c:v>529.08291012443806</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.6427494605282345E-4</c:v>
+                  <c:v>564.27494605282345</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.0653396345869588E-4</c:v>
+                  <c:v>606.53396345869589</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6.4430969606612848E-4</c:v>
+                  <c:v>644.30969606612848</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6.412326670973815E-4</c:v>
+                  <c:v>641.23266709738152</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6.7444200695605989E-4</c:v>
+                  <c:v>674.4420069560598</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6.9714251031931891E-4</c:v>
+                  <c:v>697.14251031931917</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>7.2343289281641735E-4</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>9.8632234274475422E-4</c:v>
+                  <c:v>723.43289281641728</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -947,22 +1054,68 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE" sz="1200"/>
+                  <a:t>time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="de-DE" sz="1200" baseline="0"/>
+                  <a:t> / s</a:t>
+                </a:r>
+                <a:endParaRPr lang="de-DE" sz="1200"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
           <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-        </c:majorGridlines>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -1009,22 +1162,86 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE" sz="1200">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Z</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="de-DE" sz="1200" baseline="30000">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>-2</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="de-DE" sz="1200">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t> / m</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="de-DE" sz="1200" baseline="30000">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>-2</a:t>
+                </a:r>
+                <a:endParaRPr lang="de-DE" sz="1200">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
           <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-        </c:majorGridlines>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -1088,12 +1305,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -1676,16 +1888,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>669925</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>682625</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>120650</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>669925</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>682625</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2030,23 +2242,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79666D88-7525-41D1-A379-320075837B90}">
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F39" activeCellId="1" sqref="C2:C39 F2:F39"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2064,11 +2285,15 @@
         <v>36.515016170884465</v>
       </c>
       <c r="F2">
-        <f>E2^(-2)</f>
-        <v>7.4999264671962089E-4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+        <f>E2/1000</f>
+        <v>3.6515016170884464E-2</v>
+      </c>
+      <c r="G2">
+        <f>F2^(-2)</f>
+        <v>749.99264671962101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -2086,11 +2311,15 @@
         <v>35.557939114065086</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F39" si="1">E3^(-2)</f>
-        <v>7.9090958011225078E-4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+        <f t="shared" ref="F3:F39" si="1">E3/1000</f>
+        <v>3.5557939114065087E-2</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G39" si="2">F3^(-2)</f>
+        <v>790.90958011225075</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -2109,10 +2338,14 @@
       </c>
       <c r="F4">
         <f t="shared" si="1"/>
-        <v>8.1296844982901135E-4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+        <v>3.5072211723582651E-2</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="2"/>
+        <v>812.96844982901143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -2131,10 +2364,14 @@
       </c>
       <c r="F5">
         <f t="shared" si="1"/>
-        <v>8.317567252306222E-4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+        <v>3.4673831906603066E-2</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="2"/>
+        <v>831.75672523062201</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>35</v>
       </c>
@@ -2153,10 +2390,14 @@
       </c>
       <c r="F6">
         <f t="shared" si="1"/>
-        <v>8.6005167206036159E-4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+        <v>3.4098692599548737E-2</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="2"/>
+        <v>860.05167206036151</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>36</v>
       </c>
@@ -2175,10 +2416,14 @@
       </c>
       <c r="F7">
         <f t="shared" si="1"/>
-        <v>9.0506791698691973E-4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+        <v>3.3239877522647551E-2</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="2"/>
+        <v>905.06791698692007</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>37</v>
       </c>
@@ -2197,10 +2442,14 @@
       </c>
       <c r="F8">
         <f t="shared" si="1"/>
-        <v>9.5190683501836324E-4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+        <v>3.2411772162922993E-2</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="2"/>
+        <v>951.90683501836315</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>38</v>
       </c>
@@ -2219,10 +2468,14 @@
       </c>
       <c r="F9">
         <f t="shared" si="1"/>
-        <v>9.4992558824712908E-4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+        <v>3.2445554951361019E-2</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="2"/>
+        <v>949.9255882471291</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>39</v>
       </c>
@@ -2241,10 +2494,14 @@
       </c>
       <c r="F10">
         <f t="shared" si="1"/>
-        <v>3.1902821718170487E-4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+        <v>5.5986774992028282E-2</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="2"/>
+        <v>319.02821718170486</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -2263,10 +2520,14 @@
       </c>
       <c r="F11">
         <f t="shared" si="1"/>
-        <v>2.8138432920320368E-4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+        <v>5.9614244772348356E-2</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="2"/>
+        <v>281.38432920320372</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -2285,10 +2546,14 @@
       </c>
       <c r="F12">
         <f t="shared" si="1"/>
-        <v>2.6941101135055943E-4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+        <v>6.0924549832646696E-2</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="2"/>
+        <v>269.41101135055942</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -2307,10 +2572,14 @@
       </c>
       <c r="F13">
         <f t="shared" si="1"/>
-        <v>2.9897432106913046E-4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+        <v>5.7833976719329501E-2</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="2"/>
+        <v>298.97432106913044</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -2329,10 +2598,14 @@
       </c>
       <c r="F14">
         <f t="shared" si="1"/>
-        <v>2.3989901635008658E-4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+        <v>6.4563306862523762E-2</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="2"/>
+        <v>239.89901635008655</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -2351,10 +2624,14 @@
       </c>
       <c r="F15">
         <f t="shared" si="1"/>
-        <v>2.4389183220692481E-4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+        <v>6.4032634713526035E-2</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="2"/>
+        <v>243.89183220692479</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -2373,10 +2650,14 @@
       </c>
       <c r="F16">
         <f t="shared" si="1"/>
-        <v>2.45691923483354E-4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+        <v>6.3797632098379242E-2</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="2"/>
+        <v>245.691923483354</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -2395,10 +2676,14 @@
       </c>
       <c r="F17">
         <f t="shared" si="1"/>
-        <v>2.3435602906193067E-4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+        <v>6.532237021121523E-2</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="2"/>
+        <v>234.35602906193063</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>10</v>
       </c>
@@ -2417,10 +2702,14 @@
       </c>
       <c r="F18">
         <f t="shared" si="1"/>
-        <v>2.4081999991558051E-4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+        <v>6.4439731776572057E-2</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="2"/>
+        <v>240.81999991558055</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>11</v>
       </c>
@@ -2439,10 +2728,14 @@
       </c>
       <c r="F19">
         <f t="shared" si="1"/>
-        <v>2.5945141724307294E-4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+        <v>6.2082897276808928E-2</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="2"/>
+        <v>259.45141724307297</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>12</v>
       </c>
@@ -2461,10 +2754,14 @@
       </c>
       <c r="F20">
         <f t="shared" si="1"/>
-        <v>2.5982061833967993E-4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+        <v>6.2038772175584747E-2</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="2"/>
+        <v>259.82061833967992</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>14</v>
       </c>
@@ -2483,10 +2780,14 @@
       </c>
       <c r="F21">
         <f t="shared" si="1"/>
-        <v>2.9244627059640815E-4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+        <v>5.8475905594534139E-2</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="2"/>
+        <v>292.44627059640811</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>15</v>
       </c>
@@ -2505,10 +2806,14 @@
       </c>
       <c r="F22">
         <f t="shared" si="1"/>
-        <v>3.0322716519162794E-4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+        <v>5.7426975916262675E-2</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="2"/>
+        <v>303.22716519162793</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>16</v>
       </c>
@@ -2527,10 +2832,14 @@
       </c>
       <c r="F23">
         <f t="shared" si="1"/>
-        <v>3.1169300929985791E-4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+        <v>5.6641724723514184E-2</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="2"/>
+        <v>311.69300929985781</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>17</v>
       </c>
@@ -2549,10 +2858,14 @@
       </c>
       <c r="F24">
         <f t="shared" si="1"/>
-        <v>3.2513261526910249E-4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+        <v>5.5458705897758462E-2</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="2"/>
+        <v>325.13261526910247</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>18</v>
       </c>
@@ -2571,10 +2884,14 @@
       </c>
       <c r="F25">
         <f t="shared" si="1"/>
-        <v>3.5586747474255869E-4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+        <v>5.3009761677610588E-2</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="2"/>
+        <v>355.86747474255878</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>19</v>
       </c>
@@ -2593,10 +2910,14 @@
       </c>
       <c r="F26">
         <f t="shared" si="1"/>
-        <v>3.7791617032563983E-4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+        <v>5.1440154286955184E-2</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="2"/>
+        <v>377.91617032563988</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>20</v>
       </c>
@@ -2615,10 +2936,14 @@
       </c>
       <c r="F27">
         <f t="shared" si="1"/>
-        <v>3.9586186707425518E-4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+        <v>5.026065750186344E-2</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="2"/>
+        <v>395.8618670742552</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>21</v>
       </c>
@@ -2637,10 +2962,14 @@
       </c>
       <c r="F28">
         <f t="shared" si="1"/>
-        <v>4.3333071109761964E-4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+        <v>4.8038591490027073E-2</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="2"/>
+        <v>433.33071109761966</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>22</v>
       </c>
@@ -2659,10 +2988,14 @@
       </c>
       <c r="F29">
         <f t="shared" si="1"/>
-        <v>4.6261183038380629E-4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+        <v>4.6493434887355363E-2</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="2"/>
+        <v>462.61183038380619</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>23</v>
       </c>
@@ -2681,10 +3014,14 @@
       </c>
       <c r="F30">
         <f t="shared" si="1"/>
-        <v>4.9552343632773891E-4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+        <v>4.4922911971206007E-2</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="2"/>
+        <v>495.52343632773881</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>25</v>
       </c>
@@ -2703,10 +3040,14 @@
       </c>
       <c r="F31">
         <f t="shared" si="1"/>
-        <v>5.29082910124438E-4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+        <v>4.3474854097976565E-2</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="2"/>
+        <v>529.08291012443806</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>26</v>
       </c>
@@ -2725,10 +3066,14 @@
       </c>
       <c r="F32">
         <f t="shared" si="1"/>
-        <v>5.6427494605282345E-4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+        <v>4.2097336225177258E-2</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="2"/>
+        <v>564.27494605282345</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>27</v>
       </c>
@@ -2747,10 +3092,14 @@
       </c>
       <c r="F33">
         <f t="shared" si="1"/>
-        <v>6.0653396345869588E-4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+        <v>4.0604338317920624E-2</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="2"/>
+        <v>606.53396345869589</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>28</v>
       </c>
@@ -2769,10 +3118,14 @@
       </c>
       <c r="F34">
         <f t="shared" si="1"/>
-        <v>6.4430969606612848E-4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+        <v>3.9396048778681934E-2</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="2"/>
+        <v>644.30969606612848</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>29</v>
       </c>
@@ -2791,10 +3144,14 @@
       </c>
       <c r="F35">
         <f t="shared" si="1"/>
-        <v>6.412326670973815E-4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+        <v>3.9490458898484432E-2</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="2"/>
+        <v>641.23266709738152</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>30</v>
       </c>
@@ -2813,10 +3170,14 @@
       </c>
       <c r="F36">
         <f t="shared" si="1"/>
-        <v>6.7444200695605989E-4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+        <v>3.8505936825329976E-2</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="2"/>
+        <v>674.4420069560598</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>31</v>
       </c>
@@ -2835,10 +3196,14 @@
       </c>
       <c r="F37">
         <f t="shared" si="1"/>
-        <v>6.9714251031931891E-4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+        <v>3.7873829264087416E-2</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="2"/>
+        <v>697.14251031931917</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>32</v>
       </c>
@@ -2857,10 +3222,14 @@
       </c>
       <c r="F38">
         <f t="shared" si="1"/>
-        <v>7.2343289281641735E-4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+        <v>3.7179271374774218E-2</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="2"/>
+        <v>723.43289281641728</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>33</v>
       </c>
@@ -2879,7 +3248,11 @@
       </c>
       <c r="F39">
         <f t="shared" si="1"/>
-        <v>9.8632234274475422E-4</v>
+        <v>3.1841283420111076E-2</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="2"/>
+        <v>986.32234274475434</v>
       </c>
     </row>
   </sheetData>

--- a/PC2/Diff/DIFF/ZnSO4/Differenz_Spline_Linear.xlsx
+++ b/PC2/Diff/DIFF/ZnSO4/Differenz_Spline_Linear.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\49157\OneDrive\Desktop\Protokolle\PC2\Diff\DIFF\ZnSO4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{294D8047-0496-4598-A69B-327FF2787946}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B07C0E5A-31F8-4088-831F-B55FB4ABEA79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AB37D8BF-2196-43B1-961C-DF9440D73305}"/>
   </bookViews>
@@ -770,71 +770,6 @@
                   <c:y val="4.2402826855123678E-2"/>
                 </c:manualLayout>
               </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-                      <a:lnSpc>
-                        <a:spcPct val="100000"/>
-                      </a:lnSpc>
-                      <a:spcBef>
-                        <a:spcPts val="0"/>
-                      </a:spcBef>
-                      <a:spcAft>
-                        <a:spcPts val="0"/>
-                      </a:spcAft>
-                      <a:buClrTx/>
-                      <a:buSzTx/>
-                      <a:buFontTx/>
-                      <a:buNone/>
-                      <a:tabLst/>
-                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                        <a:solidFill>
-                          <a:sysClr val="windowText" lastClr="000000">
-                            <a:lumMod val="65000"/>
-                            <a:lumOff val="35000"/>
-                          </a:sysClr>
-                        </a:solidFill>
-                        <a:latin typeface="+mn-lt"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:defRPr>
-                    </a:pPr>
-                    <a:r>
-                      <a:rPr lang="de-DE" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                        <a:effectLst/>
-                      </a:rPr>
-                      <a:t>Z</a:t>
-                    </a:r>
-                    <a:r>
-                      <a:rPr lang="de-DE" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="30000">
-                        <a:effectLst/>
-                      </a:rPr>
-                      <a:t>-2</a:t>
-                    </a:r>
-                    <a:r>
-                      <a:rPr lang="de-DE" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                        <a:effectLst/>
-                      </a:rPr>
-                      <a:t> </a:t>
-                    </a:r>
-                    <a:r>
-                      <a:rPr lang="en-US" baseline="0"/>
-                      <a:t> = 0.4171 t + 16.2</a:t>
-                    </a:r>
-                    <a:br>
-                      <a:rPr lang="en-US" baseline="0"/>
-                    </a:br>
-                    <a:r>
-                      <a:rPr lang="en-US" baseline="0"/>
-                      <a:t>R² = 0.9772</a:t>
-                    </a:r>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -2242,10 +2177,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79666D88-7525-41D1-A379-320075837B90}">
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3255,6 +3190,12 @@
         <v>986.32234274475434</v>
       </c>
     </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F44">
+        <f>SLOPE(G18:G55,C18:C55)</f>
+        <v>0.47773409074418816</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/PC2/Diff/DIFF/ZnSO4/Differenz_Spline_Linear.xlsx
+++ b/PC2/Diff/DIFF/ZnSO4/Differenz_Spline_Linear.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\49157\OneDrive\Desktop\Protokolle\PC2\Diff\DIFF\ZnSO4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B07C0E5A-31F8-4088-831F-B55FB4ABEA79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{957C97BF-B4F2-4B48-B89E-1218E76E9AA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AB37D8BF-2196-43B1-961C-DF9440D73305}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{AB37D8BF-2196-43B1-961C-DF9440D73305}"/>
   </bookViews>
   <sheets>
     <sheet name="Differenz_Spline_Linear" sheetId="1" r:id="rId1"/>
@@ -30,6 +30,28 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1823,16 +1845,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>682625</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>701675</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>3175</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>682625</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>701675</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>168275</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2177,15 +2199,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79666D88-7525-41D1-A379-320075837B90}">
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2202,7 +2224,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2227,8 +2249,15 @@
         <f>F2^(-2)</f>
         <v>749.99264671962101</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2" cm="1">
+        <f t="array" ref="H2:I6">LINEST(G17:G38, C17:C38, TRUE, TRUE)</f>
+        <v>0.41707215350963184</v>
+      </c>
+      <c r="I2">
+        <v>-16.199626406593893</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -2253,8 +2282,14 @@
         <f t="shared" ref="G3:G39" si="2">F3^(-2)</f>
         <v>790.90958011225075</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H3">
+        <v>1.4242349485463386E-2</v>
+      </c>
+      <c r="I3">
+        <v>16.71277662384653</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -2279,8 +2314,14 @@
         <f t="shared" si="2"/>
         <v>812.96844982901143</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H4">
+        <v>0.97720925842238149</v>
+      </c>
+      <c r="I4">
+        <v>25.428876444728875</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -2305,8 +2346,14 @@
         <f t="shared" si="2"/>
         <v>831.75672523062201</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H5">
+        <v>857.54932992794136</v>
+      </c>
+      <c r="I5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>35</v>
       </c>
@@ -2331,8 +2378,14 @@
         <f t="shared" si="2"/>
         <v>860.05167206036151</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H6">
+        <v>554515.19993507327</v>
+      </c>
+      <c r="I6">
+        <v>12932.555144825743</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>36</v>
       </c>
@@ -2358,7 +2411,7 @@
         <v>905.06791698692007</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>37</v>
       </c>
@@ -2384,7 +2437,7 @@
         <v>951.90683501836315</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>38</v>
       </c>
@@ -2410,7 +2463,7 @@
         <v>949.9255882471291</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>39</v>
       </c>
@@ -2435,8 +2488,12 @@
         <f t="shared" si="2"/>
         <v>319.02821718170486</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I10">
+        <f>H2/H3</f>
+        <v>29.283943210024528</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -2462,7 +2519,7 @@
         <v>281.38432920320372</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -2488,7 +2545,7 @@
         <v>269.41101135055942</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -2514,7 +2571,7 @@
         <v>298.97432106913044</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -2540,7 +2597,7 @@
         <v>239.89901635008655</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -2566,7 +2623,7 @@
         <v>243.89183220692479</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>8</v>
       </c>
